--- a/medicine/Enfance/Lois_Lowry/Lois_Lowry.xlsx
+++ b/medicine/Enfance/Lois_Lowry/Lois_Lowry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lois Lowry, née le 20 mars 1937 à Honolulu à Hawaï, est une écrivaine américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une sœur aînée, Helen, et un petit frère, Jon, Lois Lowry est au milieu de la fratrie : la meilleure place selon elle. Helen suit en effet le modèle maternel, tandis que Jon marche sur les traces de son père. Quant à Lois, elle se décrit comme une enfant indépendante et solitaire, vivant surtout dans les livres.
 Son père conduit une carrière militaire puisqu'il exerce sa profession de dentiste dans l'armée américaine. La famille est donc amenée à déménager très souvent. Au cours de son enfance, Lois vivra à Miami, puis au Japon à Tokyo. Elle fera ses études à New York puis à l'université Brown de Rhode Island. Après deux ans d'études littéraires, elle quitte l'école mais elle y retourne quelques années plus tard.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Anastasia Krupniœk
-Les Idées folles d'Anastasia, La Farandole, 1983 ((en) Anastasia Krupnik, 1979)Réédité aux éditions L'École des loisirs en 1996 sous le titre Anastasia Krupnik
+          <t>Série Anastasia Krupniœk</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Idées folles d'Anastasia, La Farandole, 1983 ((en) Anastasia Krupnik, 1979)Réédité aux éditions L'École des loisirs en 1996 sous le titre Anastasia Krupnik
 C'est encore Anastasia, L'École des loisirs, 1997 ((en) Anastasia Again!, 1981)
 Anastasia à votre service, L'École des loisirs, 1991 ((en) Anastasia at Your Service, 1982)
 Anastasia, demande à ton psy !, L'École des loisirs, 1990 ((en) Anastasia, Ask Your Analyst, 1984)
@@ -557,29 +576,199 @@
 Anastasia connaît la réponse, L'École des loisirs, 1999 ((en) Anastasia Has the Answers, 1986)
 Une carrière de rêve pour Anastasia, L'École des loisirs, 2005 ((en) Anastasia's Chosen Career, 1987)
 Le Nom de code d'Anastasia, L'École des loisirs, 2004 ((en) Anastasia at This Address, 1991)
-Anastasia avec conviction, L'École des loisirs, 2002 ((en) Anastasia Absolutely, 1995)
-Série Sam Krupnik
-Toute la vérité sur Sam, L'École des loisirs, 1999 ((en) All About Sam, 1988)
+Anastasia avec conviction, L'École des loisirs, 2002 ((en) Anastasia Absolutely, 1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Sam Krupnik</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toute la vérité sur Sam, L'École des loisirs, 1999 ((en) All About Sam, 1988)
 (en) Attaboy Sam!, 1992
 (en) See You Around, Sam!, 1996
-(en) Zooman Sam, 1999
-Série Tate Family
-(en) The One Hundredth Thing About Caroline, 1983
+(en) Zooman Sam, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Tate Family</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The One Hundredth Thing About Caroline, 1983
 (en) Switcharound, 1985
-(en) Your Move, J.P.!, 1990
-Série Le Quatuor
-Le Passeur, L'École des loisirs, 1994 ((en) The Giver, 1993)Adapté au cinéma par Phillip Noyce sous le titre The Giver sorti en 2014
+(en) Your Move, J.P.!, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Le Quatuor</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Passeur, L'École des loisirs, 1994 ((en) The Giver, 1993)Adapté au cinéma par Phillip Noyce sous le titre The Giver sorti en 2014
 L'Élue (en), Gallimard Jeunesse, 2001 ((en) Gathering Blue, 2000)
 Messager (en), L'École des loisirs, 2004 ((en) Messenger, 2004)
-Le Fils (en), L'École des loisirs, 2014 ((en) Son, 2012)
-Série Gooney Bird
-(en) Gooney Bird Greene, 2002
+Le Fils (en), L'École des loisirs, 2014 ((en) Son, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Gooney Bird</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Gooney Bird Greene, 2002
 (en) Gooney Bird and the Room Mother, 2006
 (en) Gooney the Fabulous, 2007
 (en) Gooney Bird Is So Absurd, 2009
-(en) Gooney Bird on the Map, 2011
-Autres
-Un été pour mourir, Duculot, 1979 ((en) A Summer to Die, 1977)
+(en) Gooney Bird on the Map, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un été pour mourir, Duculot, 1979 ((en) A Summer to Die, 1977)
 (en) Here in Kennebunkport, 1978
 (en) Find a Stranger, Say Goodbye, 1978
 Les Ombres d'Autumn Street, Flammarion, 1987 ((en) Autumn Street, 1980),  trad. de l'américain par Martine Delattre
@@ -596,37 +785,39 @@
 Le Bal d'anniversaire, L'École des loisirs, 2011 ((en) The Birthday Ball, 2010)
 (en) Bless This Mouse, 2011
 (en) Like the Willow Tree, 2011
-Cinq centièmes de seconde, Casterman, 2017[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Cinq centièmes de seconde, Casterman, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Lois_Lowry</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lois_Lowry</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1982 : (international) « Honour List »[2] de l' IBBY pour Autumn Street (Les Ombres d'Autumn Street)
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1982 : (international) « Honour List » de l' IBBY pour Autumn Street (Les Ombres d'Autumn Street)
 1990 : Médaille Newbery pour Compte les étoiles
 1994 : Médaille Newbery pour Le Passeur
 1996 : Young Reader's Choice Award, catégorie Junior, pour Le Passeur
